--- a/ks_3/utils/output.xlsx
+++ b/ks_3/utils/output.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
   <si>
     <t>Унифицированная форма № КС-3
 Утверждена постановлением Госкомстата России от 11.11.99 № 100</t>
@@ -1064,8 +1064,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1dd585fc-2158-46d2-99aa-f4a521140988}">
-  <dimension ref="A1:ZM42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8f705f40-95ac-40e7-b4c9-a5a7f5091645}">
+  <dimension ref="A1:ZM43"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -21880,118 +21880,127 @@
       <c r="ZM30" s="51"/>
     </row>
     <row r="31" spans="1:689" ht="14.25" customHeight="1">
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="51"/>
-      <c r="T31" s="51"/>
-      <c r="U31" s="51"/>
-      <c r="V31" s="51"/>
-      <c r="W31" s="51"/>
-      <c r="X31" s="51"/>
-      <c r="Y31" s="51"/>
-      <c r="Z31" s="51"/>
-      <c r="AA31" s="51"/>
-      <c r="AB31" s="51"/>
-      <c r="AC31" s="51"/>
-      <c r="AD31" s="51"/>
-      <c r="AE31" s="51"/>
-      <c r="AF31" s="51"/>
-      <c r="AG31" s="51"/>
-      <c r="AH31" s="51"/>
-      <c r="AI31" s="51"/>
-      <c r="AJ31" s="51"/>
-      <c r="AK31" s="51"/>
-      <c r="AL31" s="51"/>
-      <c r="AM31" s="51"/>
-      <c r="AN31" s="51"/>
-      <c r="AO31" s="51"/>
-      <c r="AP31" s="51"/>
-      <c r="AQ31" s="51"/>
-      <c r="AR31" s="51"/>
-      <c r="AS31" s="51"/>
-      <c r="AT31" s="51"/>
-      <c r="AU31" s="51"/>
-      <c r="AV31" s="51"/>
-      <c r="AW31" s="51"/>
-      <c r="AX31" s="51"/>
-      <c r="AY31" s="51"/>
-      <c r="AZ31" s="51"/>
-      <c r="BA31" s="51"/>
-      <c r="BB31" s="51"/>
-      <c r="BC31" s="51"/>
-      <c r="BD31" s="51"/>
-      <c r="BE31" s="51"/>
-      <c r="BF31" s="51"/>
-      <c r="BG31" s="51"/>
-      <c r="BH31" s="51"/>
-      <c r="BI31" s="51"/>
-      <c r="BJ31" s="51"/>
-      <c r="BK31" s="51"/>
-      <c r="BL31" s="51"/>
-      <c r="BM31" s="6" t="s">
-        <v>38</v>
+      <c r="A31" s="76">
+        <v>1</v>
       </c>
-      <c r="BN31" s="6"/>
-      <c r="BO31" s="6"/>
-      <c r="BP31" s="6"/>
-      <c r="BQ31" s="6"/>
-      <c r="BR31" s="6"/>
-      <c r="BS31" s="6"/>
-      <c r="BT31" s="6"/>
-      <c r="BU31" s="6"/>
-      <c r="BV31" s="6"/>
-      <c r="BW31" s="6"/>
-      <c r="BX31" s="6"/>
-      <c r="BY31" s="6"/>
-      <c r="BZ31" s="6"/>
-      <c r="CA31" s="6"/>
-      <c r="CB31" s="6"/>
-      <c r="CC31" s="6"/>
-      <c r="CD31" s="6"/>
-      <c r="CE31" s="6"/>
-      <c r="CF31" s="6"/>
-      <c r="CG31" s="6"/>
-      <c r="CH31" s="6"/>
-      <c r="CI31" s="6"/>
-      <c r="CJ31" s="6"/>
-      <c r="CK31" s="6"/>
-      <c r="CL31" s="6"/>
-      <c r="CM31" s="6"/>
-      <c r="CN31" s="6"/>
-      <c r="CO31" s="6"/>
-      <c r="CP31" s="6"/>
-      <c r="CQ31" s="84" t="s">
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="80"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="80"/>
+      <c r="O31" s="80"/>
+      <c r="P31" s="80"/>
+      <c r="Q31" s="80"/>
+      <c r="R31" s="80"/>
+      <c r="S31" s="80"/>
+      <c r="T31" s="80"/>
+      <c r="U31" s="80"/>
+      <c r="V31" s="80"/>
+      <c r="W31" s="80"/>
+      <c r="X31" s="80"/>
+      <c r="Y31" s="80"/>
+      <c r="Z31" s="80"/>
+      <c r="AA31" s="80"/>
+      <c r="AB31" s="80"/>
+      <c r="AC31" s="80"/>
+      <c r="AD31" s="80"/>
+      <c r="AE31" s="80"/>
+      <c r="AF31" s="80"/>
+      <c r="AG31" s="80"/>
+      <c r="AH31" s="80"/>
+      <c r="AI31" s="80"/>
+      <c r="AJ31" s="80"/>
+      <c r="AK31" s="80"/>
+      <c r="AL31" s="80"/>
+      <c r="AM31" s="80"/>
+      <c r="AN31" s="80"/>
+      <c r="AO31" s="80"/>
+      <c r="AP31" s="80"/>
+      <c r="AQ31" s="80"/>
+      <c r="AR31" s="80"/>
+      <c r="AS31" s="80"/>
+      <c r="AT31" s="80"/>
+      <c r="AU31" s="80"/>
+      <c r="AV31" s="80"/>
+      <c r="AW31" s="80"/>
+      <c r="AX31" s="80"/>
+      <c r="AY31" s="80"/>
+      <c r="AZ31" s="80"/>
+      <c r="BA31" s="80"/>
+      <c r="BB31" s="80"/>
+      <c r="BC31" s="80"/>
+      <c r="BD31" s="80"/>
+      <c r="BE31" s="81">
+        <v>78</v>
+      </c>
+      <c r="BF31" s="64"/>
+      <c r="BG31" s="64"/>
+      <c r="BH31" s="64"/>
+      <c r="BI31" s="64"/>
+      <c r="BJ31" s="64"/>
+      <c r="BK31" s="64"/>
+      <c r="BL31" s="64"/>
+      <c r="BM31" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="BN31" s="64"/>
+      <c r="BO31" s="64"/>
+      <c r="BP31" s="64"/>
+      <c r="BQ31" s="64"/>
+      <c r="BR31" s="64"/>
+      <c r="BS31" s="64"/>
+      <c r="BT31" s="64"/>
+      <c r="BU31" s="64"/>
+      <c r="BV31" s="64"/>
+      <c r="BW31" s="64"/>
+      <c r="BX31" s="64"/>
+      <c r="BY31" s="64"/>
+      <c r="BZ31" s="64"/>
+      <c r="CA31" s="64"/>
+      <c r="CB31" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="CC31" s="64"/>
+      <c r="CD31" s="64"/>
+      <c r="CE31" s="64"/>
+      <c r="CF31" s="64"/>
+      <c r="CG31" s="64"/>
+      <c r="CH31" s="64"/>
+      <c r="CI31" s="64"/>
+      <c r="CJ31" s="64"/>
+      <c r="CK31" s="64"/>
+      <c r="CL31" s="64"/>
+      <c r="CM31" s="64"/>
+      <c r="CN31" s="64"/>
+      <c r="CO31" s="64"/>
+      <c r="CP31" s="64"/>
+      <c r="CQ31" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="CR31" s="84"/>
-      <c r="CS31" s="84"/>
-      <c r="CT31" s="84"/>
-      <c r="CU31" s="84"/>
-      <c r="CV31" s="84"/>
-      <c r="CW31" s="84"/>
-      <c r="CX31" s="84"/>
-      <c r="CY31" s="84"/>
-      <c r="CZ31" s="84"/>
-      <c r="DA31" s="84"/>
-      <c r="DB31" s="84"/>
-      <c r="DC31" s="84"/>
-      <c r="DD31" s="84"/>
-      <c r="DE31" s="84"/>
+      <c r="CR31" s="64"/>
+      <c r="CS31" s="64"/>
+      <c r="CT31" s="64"/>
+      <c r="CU31" s="64"/>
+      <c r="CV31" s="64"/>
+      <c r="CW31" s="64"/>
+      <c r="CX31" s="64"/>
+      <c r="CY31" s="64"/>
+      <c r="CZ31" s="64"/>
+      <c r="DA31" s="64"/>
+      <c r="DB31" s="64"/>
+      <c r="DC31" s="64"/>
+      <c r="DD31" s="64"/>
+      <c r="DE31" s="64"/>
       <c r="DG31" s="51"/>
       <c r="DH31" s="51"/>
       <c r="DI31" s="51"/>
@@ -22562,14 +22571,14 @@
       <c r="ZB31" s="51"/>
       <c r="ZC31" s="51"/>
       <c r="ZD31" s="51"/>
-      <c r="ZE31" s="51"/>
-      <c r="ZF31" s="51"/>
-      <c r="ZG31" s="51"/>
-      <c r="ZH31" s="51"/>
+      <c r="ZE31" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="ZG31" s="82">
+        <v>78</v>
+      </c>
       <c r="ZI31" s="51"/>
-      <c r="ZJ31" s="51"/>
       <c r="ZK31" s="51"/>
-      <c r="ZL31" s="51"/>
       <c r="ZM31" s="51"/>
     </row>
     <row r="32" spans="1:689" ht="14.25" customHeight="1">
@@ -22637,7 +22646,7 @@
       <c r="BK32" s="51"/>
       <c r="BL32" s="51"/>
       <c r="BM32" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="BN32" s="6"/>
       <c r="BO32" s="6"/>
@@ -22669,7 +22678,7 @@
       <c r="CO32" s="6"/>
       <c r="CP32" s="6"/>
       <c r="CQ32" s="84" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="CR32" s="84"/>
       <c r="CS32" s="84"/>
@@ -23330,7 +23339,7 @@
       <c r="BK33" s="51"/>
       <c r="BL33" s="51"/>
       <c r="BM33" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="BN33" s="6"/>
       <c r="BO33" s="6"/>
@@ -23362,7 +23371,7 @@
       <c r="CO33" s="6"/>
       <c r="CP33" s="6"/>
       <c r="CQ33" s="84" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="CR33" s="84"/>
       <c r="CS33" s="84"/>
@@ -23958,7 +23967,7 @@
       <c r="ZL33" s="51"/>
       <c r="ZM33" s="51"/>
     </row>
-    <row r="34" spans="1:689" ht="7.5" customHeight="1">
+    <row r="34" spans="1:689" ht="14.25" customHeight="1">
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
       <c r="D34" s="51"/>
@@ -24022,52 +24031,55 @@
       <c r="BJ34" s="51"/>
       <c r="BK34" s="51"/>
       <c r="BL34" s="51"/>
-      <c r="BM34" s="51"/>
-      <c r="BN34" s="51"/>
-      <c r="BO34" s="51"/>
-      <c r="BP34" s="51"/>
-      <c r="BQ34" s="51"/>
-      <c r="BR34" s="51"/>
-      <c r="BS34" s="51"/>
-      <c r="BT34" s="51"/>
-      <c r="BU34" s="51"/>
-      <c r="BV34" s="51"/>
-      <c r="BW34" s="51"/>
-      <c r="BX34" s="51"/>
-      <c r="BY34" s="51"/>
-      <c r="BZ34" s="51"/>
-      <c r="CA34" s="51"/>
-      <c r="CB34" s="51"/>
-      <c r="CC34" s="51"/>
-      <c r="CD34" s="51"/>
-      <c r="CE34" s="51"/>
-      <c r="CF34" s="51"/>
-      <c r="CG34" s="51"/>
-      <c r="CH34" s="51"/>
-      <c r="CI34" s="51"/>
-      <c r="CJ34" s="51"/>
-      <c r="CK34" s="51"/>
-      <c r="CL34" s="51"/>
-      <c r="CM34" s="51"/>
-      <c r="CN34" s="51"/>
-      <c r="CO34" s="51"/>
-      <c r="CP34" s="51"/>
-      <c r="CQ34" s="51"/>
-      <c r="CR34" s="51"/>
-      <c r="CS34" s="51"/>
-      <c r="CT34" s="51"/>
-      <c r="CU34" s="51"/>
-      <c r="CV34" s="51"/>
-      <c r="CW34" s="51"/>
-      <c r="CX34" s="51"/>
-      <c r="CY34" s="51"/>
-      <c r="CZ34" s="51"/>
-      <c r="DA34" s="51"/>
-      <c r="DB34" s="51"/>
-      <c r="DC34" s="51"/>
-      <c r="DD34" s="51"/>
-      <c r="DE34" s="51"/>
-      <c r="DF34" s="51"/>
+      <c r="BM34" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="BN34" s="6"/>
+      <c r="BO34" s="6"/>
+      <c r="BP34" s="6"/>
+      <c r="BQ34" s="6"/>
+      <c r="BR34" s="6"/>
+      <c r="BS34" s="6"/>
+      <c r="BT34" s="6"/>
+      <c r="BU34" s="6"/>
+      <c r="BV34" s="6"/>
+      <c r="BW34" s="6"/>
+      <c r="BX34" s="6"/>
+      <c r="BY34" s="6"/>
+      <c r="BZ34" s="6"/>
+      <c r="CA34" s="6"/>
+      <c r="CB34" s="6"/>
+      <c r="CC34" s="6"/>
+      <c r="CD34" s="6"/>
+      <c r="CE34" s="6"/>
+      <c r="CF34" s="6"/>
+      <c r="CG34" s="6"/>
+      <c r="CH34" s="6"/>
+      <c r="CI34" s="6"/>
+      <c r="CJ34" s="6"/>
+      <c r="CK34" s="6"/>
+      <c r="CL34" s="6"/>
+      <c r="CM34" s="6"/>
+      <c r="CN34" s="6"/>
+      <c r="CO34" s="6"/>
+      <c r="CP34" s="6"/>
+      <c r="CQ34" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="CR34" s="84"/>
+      <c r="CS34" s="84"/>
+      <c r="CT34" s="84"/>
+      <c r="CU34" s="84"/>
+      <c r="CV34" s="84"/>
+      <c r="CW34" s="84"/>
+      <c r="CX34" s="84"/>
+      <c r="CY34" s="84"/>
+      <c r="CZ34" s="84"/>
+      <c r="DA34" s="84"/>
+      <c r="DB34" s="84"/>
+      <c r="DC34" s="84"/>
+      <c r="DD34" s="84"/>
+      <c r="DE34" s="84"/>
       <c r="DG34" s="51"/>
       <c r="DH34" s="51"/>
       <c r="DI34" s="51"/>
@@ -24648,120 +24660,116 @@
       <c r="ZL34" s="51"/>
       <c r="ZM34" s="51"/>
     </row>
-    <row r="35" spans="1:689" ht="14.25" customHeight="1">
-      <c r="A35" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="10"/>
-      <c r="X35" s="10"/>
-      <c r="Y35" s="10"/>
-      <c r="Z35" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA35" s="85"/>
-      <c r="AB35" s="85"/>
-      <c r="AC35" s="85"/>
-      <c r="AD35" s="85"/>
-      <c r="AE35" s="85"/>
-      <c r="AF35" s="85"/>
-      <c r="AG35" s="85"/>
-      <c r="AH35" s="85"/>
-      <c r="AI35" s="85"/>
-      <c r="AJ35" s="85"/>
-      <c r="AK35" s="85"/>
-      <c r="AL35" s="85"/>
-      <c r="AM35" s="85"/>
-      <c r="AN35" s="85"/>
-      <c r="AO35" s="85"/>
-      <c r="AP35" s="85"/>
-      <c r="AQ35" s="85"/>
-      <c r="AR35" s="85"/>
-      <c r="AS35" s="85"/>
-      <c r="AT35" s="85"/>
-      <c r="AU35" s="85"/>
-      <c r="AV35" s="85"/>
-      <c r="AW35" s="85"/>
-      <c r="AX35" s="85"/>
-      <c r="AY35" s="85"/>
-      <c r="AZ35" s="85"/>
-      <c r="BB35" s="86"/>
-      <c r="BC35" s="86"/>
-      <c r="BD35" s="86"/>
-      <c r="BE35" s="86"/>
-      <c r="BF35" s="86"/>
-      <c r="BG35" s="86"/>
-      <c r="BH35" s="86"/>
-      <c r="BI35" s="86"/>
-      <c r="BJ35" s="86"/>
-      <c r="BK35" s="86"/>
-      <c r="BL35" s="86"/>
-      <c r="BM35" s="86"/>
-      <c r="BN35" s="86"/>
-      <c r="BO35" s="86"/>
-      <c r="BP35" s="86"/>
-      <c r="BQ35" s="86"/>
-      <c r="BR35" s="86"/>
-      <c r="BS35" s="86"/>
-      <c r="BT35" s="86"/>
-      <c r="BU35" s="86"/>
-      <c r="BV35" s="86"/>
-      <c r="BX35" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="BY35" s="85"/>
-      <c r="BZ35" s="85"/>
-      <c r="CA35" s="85"/>
-      <c r="CB35" s="85"/>
-      <c r="CC35" s="85"/>
-      <c r="CD35" s="85"/>
-      <c r="CE35" s="85"/>
-      <c r="CF35" s="85"/>
-      <c r="CG35" s="85"/>
-      <c r="CH35" s="85"/>
-      <c r="CI35" s="85"/>
-      <c r="CJ35" s="85"/>
-      <c r="CK35" s="85"/>
-      <c r="CL35" s="85"/>
-      <c r="CM35" s="85"/>
-      <c r="CN35" s="85"/>
-      <c r="CO35" s="85"/>
-      <c r="CP35" s="85"/>
-      <c r="CQ35" s="85"/>
-      <c r="CR35" s="85"/>
-      <c r="CS35" s="85"/>
-      <c r="CT35" s="85"/>
-      <c r="CU35" s="85"/>
-      <c r="CV35" s="85"/>
-      <c r="CW35" s="85"/>
-      <c r="CX35" s="85"/>
-      <c r="CY35" s="85"/>
-      <c r="CZ35" s="85"/>
-      <c r="DA35" s="85"/>
-      <c r="DB35" s="85"/>
-      <c r="DC35" s="85"/>
-      <c r="DD35" s="85"/>
-      <c r="DE35" s="85"/>
+    <row r="35" spans="1:689" ht="7.5" customHeight="1">
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="51"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="51"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="51"/>
+      <c r="Z35" s="51"/>
+      <c r="AA35" s="51"/>
+      <c r="AB35" s="51"/>
+      <c r="AC35" s="51"/>
+      <c r="AD35" s="51"/>
+      <c r="AE35" s="51"/>
+      <c r="AF35" s="51"/>
+      <c r="AG35" s="51"/>
+      <c r="AH35" s="51"/>
+      <c r="AI35" s="51"/>
+      <c r="AJ35" s="51"/>
+      <c r="AK35" s="51"/>
+      <c r="AL35" s="51"/>
+      <c r="AM35" s="51"/>
+      <c r="AN35" s="51"/>
+      <c r="AO35" s="51"/>
+      <c r="AP35" s="51"/>
+      <c r="AQ35" s="51"/>
+      <c r="AR35" s="51"/>
+      <c r="AS35" s="51"/>
+      <c r="AT35" s="51"/>
+      <c r="AU35" s="51"/>
+      <c r="AV35" s="51"/>
+      <c r="AW35" s="51"/>
+      <c r="AX35" s="51"/>
+      <c r="AY35" s="51"/>
+      <c r="AZ35" s="51"/>
+      <c r="BA35" s="51"/>
+      <c r="BB35" s="51"/>
+      <c r="BC35" s="51"/>
+      <c r="BD35" s="51"/>
+      <c r="BE35" s="51"/>
+      <c r="BF35" s="51"/>
+      <c r="BG35" s="51"/>
+      <c r="BH35" s="51"/>
+      <c r="BI35" s="51"/>
+      <c r="BJ35" s="51"/>
+      <c r="BK35" s="51"/>
+      <c r="BL35" s="51"/>
+      <c r="BM35" s="51"/>
+      <c r="BN35" s="51"/>
+      <c r="BO35" s="51"/>
+      <c r="BP35" s="51"/>
+      <c r="BQ35" s="51"/>
+      <c r="BR35" s="51"/>
+      <c r="BS35" s="51"/>
+      <c r="BT35" s="51"/>
+      <c r="BU35" s="51"/>
+      <c r="BV35" s="51"/>
+      <c r="BW35" s="51"/>
+      <c r="BX35" s="51"/>
+      <c r="BY35" s="51"/>
+      <c r="BZ35" s="51"/>
+      <c r="CA35" s="51"/>
+      <c r="CB35" s="51"/>
+      <c r="CC35" s="51"/>
+      <c r="CD35" s="51"/>
+      <c r="CE35" s="51"/>
+      <c r="CF35" s="51"/>
+      <c r="CG35" s="51"/>
+      <c r="CH35" s="51"/>
+      <c r="CI35" s="51"/>
+      <c r="CJ35" s="51"/>
+      <c r="CK35" s="51"/>
+      <c r="CL35" s="51"/>
+      <c r="CM35" s="51"/>
+      <c r="CN35" s="51"/>
+      <c r="CO35" s="51"/>
+      <c r="CP35" s="51"/>
+      <c r="CQ35" s="51"/>
+      <c r="CR35" s="51"/>
+      <c r="CS35" s="51"/>
+      <c r="CT35" s="51"/>
+      <c r="CU35" s="51"/>
+      <c r="CV35" s="51"/>
+      <c r="CW35" s="51"/>
+      <c r="CX35" s="51"/>
+      <c r="CY35" s="51"/>
+      <c r="CZ35" s="51"/>
+      <c r="DA35" s="51"/>
+      <c r="DB35" s="51"/>
+      <c r="DC35" s="51"/>
+      <c r="DD35" s="51"/>
+      <c r="DE35" s="51"/>
+      <c r="DF35" s="51"/>
       <c r="DG35" s="51"/>
       <c r="DH35" s="51"/>
       <c r="DI35" s="51"/>
@@ -25335,128 +25343,127 @@
       <c r="ZE35" s="51"/>
       <c r="ZF35" s="51"/>
       <c r="ZG35" s="51"/>
-      <c r="ZH35" s="12" t="s">
+      <c r="ZH35" s="51"/>
+      <c r="ZI35" s="51"/>
+      <c r="ZJ35" s="51"/>
+      <c r="ZK35" s="51"/>
+      <c r="ZL35" s="51"/>
+      <c r="ZM35" s="51"/>
+    </row>
+    <row r="36" spans="1:689" ht="14.25" customHeight="1">
+      <c r="A36" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="ZI35" s="12" t="s">
+      <c r="AA36" s="85"/>
+      <c r="AB36" s="85"/>
+      <c r="AC36" s="85"/>
+      <c r="AD36" s="85"/>
+      <c r="AE36" s="85"/>
+      <c r="AF36" s="85"/>
+      <c r="AG36" s="85"/>
+      <c r="AH36" s="85"/>
+      <c r="AI36" s="85"/>
+      <c r="AJ36" s="85"/>
+      <c r="AK36" s="85"/>
+      <c r="AL36" s="85"/>
+      <c r="AM36" s="85"/>
+      <c r="AN36" s="85"/>
+      <c r="AO36" s="85"/>
+      <c r="AP36" s="85"/>
+      <c r="AQ36" s="85"/>
+      <c r="AR36" s="85"/>
+      <c r="AS36" s="85"/>
+      <c r="AT36" s="85"/>
+      <c r="AU36" s="85"/>
+      <c r="AV36" s="85"/>
+      <c r="AW36" s="85"/>
+      <c r="AX36" s="85"/>
+      <c r="AY36" s="85"/>
+      <c r="AZ36" s="85"/>
+      <c r="BB36" s="86"/>
+      <c r="BC36" s="86"/>
+      <c r="BD36" s="86"/>
+      <c r="BE36" s="86"/>
+      <c r="BF36" s="86"/>
+      <c r="BG36" s="86"/>
+      <c r="BH36" s="86"/>
+      <c r="BI36" s="86"/>
+      <c r="BJ36" s="86"/>
+      <c r="BK36" s="86"/>
+      <c r="BL36" s="86"/>
+      <c r="BM36" s="86"/>
+      <c r="BN36" s="86"/>
+      <c r="BO36" s="86"/>
+      <c r="BP36" s="86"/>
+      <c r="BQ36" s="86"/>
+      <c r="BR36" s="86"/>
+      <c r="BS36" s="86"/>
+      <c r="BT36" s="86"/>
+      <c r="BU36" s="86"/>
+      <c r="BV36" s="86"/>
+      <c r="BX36" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="ZK35" s="51"/>
-      <c r="ZM35" s="51"/>
-    </row>
-    <row r="36" spans="1:689" ht="6.75" customHeight="1">
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="51"/>
-      <c r="Q36" s="51"/>
-      <c r="R36" s="51"/>
-      <c r="S36" s="51"/>
-      <c r="T36" s="51"/>
-      <c r="U36" s="51"/>
-      <c r="V36" s="51"/>
-      <c r="W36" s="51"/>
-      <c r="X36" s="51"/>
-      <c r="Y36" s="51"/>
-      <c r="Z36" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA36" s="21"/>
-      <c r="AB36" s="21"/>
-      <c r="AC36" s="21"/>
-      <c r="AD36" s="21"/>
-      <c r="AE36" s="21"/>
-      <c r="AF36" s="21"/>
-      <c r="AG36" s="21"/>
-      <c r="AH36" s="21"/>
-      <c r="AI36" s="21"/>
-      <c r="AJ36" s="21"/>
-      <c r="AK36" s="21"/>
-      <c r="AL36" s="21"/>
-      <c r="AM36" s="21"/>
-      <c r="AN36" s="21"/>
-      <c r="AO36" s="21"/>
-      <c r="AP36" s="21"/>
-      <c r="AQ36" s="21"/>
-      <c r="AR36" s="21"/>
-      <c r="AS36" s="21"/>
-      <c r="AT36" s="21"/>
-      <c r="AU36" s="21"/>
-      <c r="AV36" s="21"/>
-      <c r="AW36" s="21"/>
-      <c r="AX36" s="21"/>
-      <c r="AY36" s="21"/>
-      <c r="AZ36" s="21"/>
-      <c r="BB36" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="BC36" s="21"/>
-      <c r="BD36" s="21"/>
-      <c r="BE36" s="21"/>
-      <c r="BF36" s="21"/>
-      <c r="BG36" s="21"/>
-      <c r="BH36" s="21"/>
-      <c r="BI36" s="21"/>
-      <c r="BJ36" s="21"/>
-      <c r="BK36" s="21"/>
-      <c r="BL36" s="21"/>
-      <c r="BM36" s="21"/>
-      <c r="BN36" s="21"/>
-      <c r="BO36" s="21"/>
-      <c r="BP36" s="21"/>
-      <c r="BQ36" s="21"/>
-      <c r="BR36" s="21"/>
-      <c r="BS36" s="21"/>
-      <c r="BT36" s="21"/>
-      <c r="BU36" s="21"/>
-      <c r="BV36" s="21"/>
-      <c r="BX36" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="BY36" s="21"/>
-      <c r="BZ36" s="21"/>
-      <c r="CA36" s="21"/>
-      <c r="CB36" s="21"/>
-      <c r="CC36" s="21"/>
-      <c r="CD36" s="21"/>
-      <c r="CE36" s="21"/>
-      <c r="CF36" s="21"/>
-      <c r="CG36" s="21"/>
-      <c r="CH36" s="21"/>
-      <c r="CI36" s="21"/>
-      <c r="CJ36" s="21"/>
-      <c r="CK36" s="21"/>
-      <c r="CL36" s="21"/>
-      <c r="CM36" s="21"/>
-      <c r="CN36" s="21"/>
-      <c r="CO36" s="21"/>
-      <c r="CP36" s="21"/>
-      <c r="CQ36" s="21"/>
-      <c r="CR36" s="21"/>
-      <c r="CS36" s="21"/>
-      <c r="CT36" s="21"/>
-      <c r="CU36" s="21"/>
-      <c r="CV36" s="21"/>
-      <c r="CW36" s="21"/>
-      <c r="CX36" s="21"/>
-      <c r="CY36" s="21"/>
-      <c r="CZ36" s="21"/>
-      <c r="DA36" s="21"/>
-      <c r="DB36" s="21"/>
-      <c r="DC36" s="21"/>
-      <c r="DD36" s="21"/>
-      <c r="DE36" s="21"/>
+      <c r="BY36" s="85"/>
+      <c r="BZ36" s="85"/>
+      <c r="CA36" s="85"/>
+      <c r="CB36" s="85"/>
+      <c r="CC36" s="85"/>
+      <c r="CD36" s="85"/>
+      <c r="CE36" s="85"/>
+      <c r="CF36" s="85"/>
+      <c r="CG36" s="85"/>
+      <c r="CH36" s="85"/>
+      <c r="CI36" s="85"/>
+      <c r="CJ36" s="85"/>
+      <c r="CK36" s="85"/>
+      <c r="CL36" s="85"/>
+      <c r="CM36" s="85"/>
+      <c r="CN36" s="85"/>
+      <c r="CO36" s="85"/>
+      <c r="CP36" s="85"/>
+      <c r="CQ36" s="85"/>
+      <c r="CR36" s="85"/>
+      <c r="CS36" s="85"/>
+      <c r="CT36" s="85"/>
+      <c r="CU36" s="85"/>
+      <c r="CV36" s="85"/>
+      <c r="CW36" s="85"/>
+      <c r="CX36" s="85"/>
+      <c r="CY36" s="85"/>
+      <c r="CZ36" s="85"/>
+      <c r="DA36" s="85"/>
+      <c r="DB36" s="85"/>
+      <c r="DC36" s="85"/>
+      <c r="DD36" s="85"/>
+      <c r="DE36" s="85"/>
       <c r="DG36" s="51"/>
       <c r="DH36" s="51"/>
       <c r="DI36" s="51"/>
@@ -26030,14 +26037,16 @@
       <c r="ZE36" s="51"/>
       <c r="ZF36" s="51"/>
       <c r="ZG36" s="51"/>
-      <c r="ZH36" s="51"/>
-      <c r="ZI36" s="51"/>
-      <c r="ZJ36" s="51"/>
+      <c r="ZH36" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="ZI36" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="ZK36" s="51"/>
-      <c r="ZL36" s="51"/>
       <c r="ZM36" s="51"/>
     </row>
-    <row r="37" spans="1:689" ht="14.25" customHeight="1">
+    <row r="37" spans="1:689" ht="6.75" customHeight="1">
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
       <c r="D37" s="51"/>
@@ -26046,15 +26055,14 @@
       <c r="G37" s="51"/>
       <c r="H37" s="51"/>
       <c r="I37" s="51"/>
-      <c r="J37" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="51"/>
       <c r="R37" s="51"/>
       <c r="S37" s="51"/>
       <c r="T37" s="51"/>
@@ -26063,91 +26071,94 @@
       <c r="W37" s="51"/>
       <c r="X37" s="51"/>
       <c r="Y37" s="51"/>
-      <c r="Z37" s="51"/>
-      <c r="AA37" s="51"/>
-      <c r="AB37" s="51"/>
-      <c r="AC37" s="51"/>
-      <c r="AD37" s="51"/>
-      <c r="AE37" s="51"/>
-      <c r="AF37" s="51"/>
-      <c r="AG37" s="51"/>
-      <c r="AH37" s="51"/>
-      <c r="AI37" s="51"/>
-      <c r="AJ37" s="51"/>
-      <c r="AK37" s="51"/>
-      <c r="AL37" s="51"/>
-      <c r="AM37" s="51"/>
-      <c r="AN37" s="51"/>
-      <c r="AO37" s="51"/>
-      <c r="AP37" s="51"/>
-      <c r="AQ37" s="51"/>
-      <c r="AR37" s="51"/>
-      <c r="AS37" s="51"/>
-      <c r="AT37" s="51"/>
-      <c r="AU37" s="51"/>
-      <c r="AV37" s="51"/>
-      <c r="AW37" s="51"/>
-      <c r="AX37" s="51"/>
-      <c r="AY37" s="51"/>
-      <c r="AZ37" s="51"/>
-      <c r="BA37" s="51"/>
-      <c r="BB37" s="51"/>
-      <c r="BC37" s="51"/>
-      <c r="BD37" s="51"/>
-      <c r="BE37" s="51"/>
-      <c r="BF37" s="51"/>
-      <c r="BG37" s="51"/>
-      <c r="BH37" s="51"/>
-      <c r="BI37" s="51"/>
-      <c r="BJ37" s="51"/>
-      <c r="BK37" s="51"/>
-      <c r="BL37" s="51"/>
-      <c r="BM37" s="51"/>
-      <c r="BN37" s="51"/>
-      <c r="BO37" s="51"/>
-      <c r="BP37" s="51"/>
-      <c r="BQ37" s="51"/>
-      <c r="BR37" s="51"/>
-      <c r="BS37" s="51"/>
-      <c r="BT37" s="51"/>
-      <c r="BU37" s="51"/>
-      <c r="BV37" s="51"/>
-      <c r="BW37" s="51"/>
-      <c r="BX37" s="51"/>
-      <c r="BY37" s="51"/>
-      <c r="BZ37" s="51"/>
-      <c r="CA37" s="51"/>
-      <c r="CB37" s="51"/>
-      <c r="CC37" s="51"/>
-      <c r="CD37" s="51"/>
-      <c r="CE37" s="51"/>
-      <c r="CF37" s="51"/>
-      <c r="CG37" s="51"/>
-      <c r="CH37" s="51"/>
-      <c r="CI37" s="51"/>
-      <c r="CJ37" s="51"/>
-      <c r="CK37" s="51"/>
-      <c r="CL37" s="51"/>
-      <c r="CM37" s="51"/>
-      <c r="CN37" s="51"/>
-      <c r="CO37" s="51"/>
-      <c r="CP37" s="51"/>
-      <c r="CQ37" s="51"/>
-      <c r="CR37" s="51"/>
-      <c r="CS37" s="51"/>
-      <c r="CT37" s="51"/>
-      <c r="CU37" s="51"/>
-      <c r="CV37" s="51"/>
-      <c r="CW37" s="51"/>
-      <c r="CX37" s="51"/>
-      <c r="CY37" s="51"/>
-      <c r="CZ37" s="51"/>
-      <c r="DA37" s="51"/>
-      <c r="DB37" s="51"/>
-      <c r="DC37" s="51"/>
-      <c r="DD37" s="51"/>
-      <c r="DE37" s="51"/>
-      <c r="DF37" s="51"/>
+      <c r="Z37" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA37" s="21"/>
+      <c r="AB37" s="21"/>
+      <c r="AC37" s="21"/>
+      <c r="AD37" s="21"/>
+      <c r="AE37" s="21"/>
+      <c r="AF37" s="21"/>
+      <c r="AG37" s="21"/>
+      <c r="AH37" s="21"/>
+      <c r="AI37" s="21"/>
+      <c r="AJ37" s="21"/>
+      <c r="AK37" s="21"/>
+      <c r="AL37" s="21"/>
+      <c r="AM37" s="21"/>
+      <c r="AN37" s="21"/>
+      <c r="AO37" s="21"/>
+      <c r="AP37" s="21"/>
+      <c r="AQ37" s="21"/>
+      <c r="AR37" s="21"/>
+      <c r="AS37" s="21"/>
+      <c r="AT37" s="21"/>
+      <c r="AU37" s="21"/>
+      <c r="AV37" s="21"/>
+      <c r="AW37" s="21"/>
+      <c r="AX37" s="21"/>
+      <c r="AY37" s="21"/>
+      <c r="AZ37" s="21"/>
+      <c r="BB37" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC37" s="21"/>
+      <c r="BD37" s="21"/>
+      <c r="BE37" s="21"/>
+      <c r="BF37" s="21"/>
+      <c r="BG37" s="21"/>
+      <c r="BH37" s="21"/>
+      <c r="BI37" s="21"/>
+      <c r="BJ37" s="21"/>
+      <c r="BK37" s="21"/>
+      <c r="BL37" s="21"/>
+      <c r="BM37" s="21"/>
+      <c r="BN37" s="21"/>
+      <c r="BO37" s="21"/>
+      <c r="BP37" s="21"/>
+      <c r="BQ37" s="21"/>
+      <c r="BR37" s="21"/>
+      <c r="BS37" s="21"/>
+      <c r="BT37" s="21"/>
+      <c r="BU37" s="21"/>
+      <c r="BV37" s="21"/>
+      <c r="BX37" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="BY37" s="21"/>
+      <c r="BZ37" s="21"/>
+      <c r="CA37" s="21"/>
+      <c r="CB37" s="21"/>
+      <c r="CC37" s="21"/>
+      <c r="CD37" s="21"/>
+      <c r="CE37" s="21"/>
+      <c r="CF37" s="21"/>
+      <c r="CG37" s="21"/>
+      <c r="CH37" s="21"/>
+      <c r="CI37" s="21"/>
+      <c r="CJ37" s="21"/>
+      <c r="CK37" s="21"/>
+      <c r="CL37" s="21"/>
+      <c r="CM37" s="21"/>
+      <c r="CN37" s="21"/>
+      <c r="CO37" s="21"/>
+      <c r="CP37" s="21"/>
+      <c r="CQ37" s="21"/>
+      <c r="CR37" s="21"/>
+      <c r="CS37" s="21"/>
+      <c r="CT37" s="21"/>
+      <c r="CU37" s="21"/>
+      <c r="CV37" s="21"/>
+      <c r="CW37" s="21"/>
+      <c r="CX37" s="21"/>
+      <c r="CY37" s="21"/>
+      <c r="CZ37" s="21"/>
+      <c r="DA37" s="21"/>
+      <c r="DB37" s="21"/>
+      <c r="DC37" s="21"/>
+      <c r="DD37" s="21"/>
+      <c r="DE37" s="21"/>
       <c r="DG37" s="51"/>
       <c r="DH37" s="51"/>
       <c r="DI37" s="51"/>
@@ -26728,7 +26739,7 @@
       <c r="ZL37" s="51"/>
       <c r="ZM37" s="51"/>
     </row>
-    <row r="38" spans="1:689" ht="9.75" customHeight="1">
+    <row r="38" spans="1:689" ht="14.25" customHeight="1">
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="51"/>
@@ -26737,14 +26748,15 @@
       <c r="G38" s="51"/>
       <c r="H38" s="51"/>
       <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="51"/>
-      <c r="Q38" s="51"/>
+      <c r="J38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
       <c r="R38" s="51"/>
       <c r="S38" s="51"/>
       <c r="T38" s="51"/>
@@ -27418,120 +27430,116 @@
       <c r="ZL38" s="51"/>
       <c r="ZM38" s="51"/>
     </row>
-    <row r="39" spans="1:689" ht="14.25" customHeight="1">
-      <c r="A39" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="10"/>
-      <c r="Y39" s="10"/>
-      <c r="Z39" s="85" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA39" s="85"/>
-      <c r="AB39" s="85"/>
-      <c r="AC39" s="85"/>
-      <c r="AD39" s="85"/>
-      <c r="AE39" s="85"/>
-      <c r="AF39" s="85"/>
-      <c r="AG39" s="85"/>
-      <c r="AH39" s="85"/>
-      <c r="AI39" s="85"/>
-      <c r="AJ39" s="85"/>
-      <c r="AK39" s="85"/>
-      <c r="AL39" s="85"/>
-      <c r="AM39" s="85"/>
-      <c r="AN39" s="85"/>
-      <c r="AO39" s="85"/>
-      <c r="AP39" s="85"/>
-      <c r="AQ39" s="85"/>
-      <c r="AR39" s="85"/>
-      <c r="AS39" s="85"/>
-      <c r="AT39" s="85"/>
-      <c r="AU39" s="85"/>
-      <c r="AV39" s="85"/>
-      <c r="AW39" s="85"/>
-      <c r="AX39" s="85"/>
-      <c r="AY39" s="85"/>
-      <c r="AZ39" s="85"/>
-      <c r="BB39" s="86"/>
-      <c r="BC39" s="86"/>
-      <c r="BD39" s="86"/>
-      <c r="BE39" s="86"/>
-      <c r="BF39" s="86"/>
-      <c r="BG39" s="86"/>
-      <c r="BH39" s="86"/>
-      <c r="BI39" s="86"/>
-      <c r="BJ39" s="86"/>
-      <c r="BK39" s="86"/>
-      <c r="BL39" s="86"/>
-      <c r="BM39" s="86"/>
-      <c r="BN39" s="86"/>
-      <c r="BO39" s="86"/>
-      <c r="BP39" s="86"/>
-      <c r="BQ39" s="86"/>
-      <c r="BR39" s="86"/>
-      <c r="BS39" s="86"/>
-      <c r="BT39" s="86"/>
-      <c r="BU39" s="86"/>
-      <c r="BV39" s="86"/>
-      <c r="BX39" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="BY39" s="85"/>
-      <c r="BZ39" s="85"/>
-      <c r="CA39" s="85"/>
-      <c r="CB39" s="85"/>
-      <c r="CC39" s="85"/>
-      <c r="CD39" s="85"/>
-      <c r="CE39" s="85"/>
-      <c r="CF39" s="85"/>
-      <c r="CG39" s="85"/>
-      <c r="CH39" s="85"/>
-      <c r="CI39" s="85"/>
-      <c r="CJ39" s="85"/>
-      <c r="CK39" s="85"/>
-      <c r="CL39" s="85"/>
-      <c r="CM39" s="85"/>
-      <c r="CN39" s="85"/>
-      <c r="CO39" s="85"/>
-      <c r="CP39" s="85"/>
-      <c r="CQ39" s="85"/>
-      <c r="CR39" s="85"/>
-      <c r="CS39" s="85"/>
-      <c r="CT39" s="85"/>
-      <c r="CU39" s="85"/>
-      <c r="CV39" s="85"/>
-      <c r="CW39" s="85"/>
-      <c r="CX39" s="85"/>
-      <c r="CY39" s="85"/>
-      <c r="CZ39" s="85"/>
-      <c r="DA39" s="85"/>
-      <c r="DB39" s="85"/>
-      <c r="DC39" s="85"/>
-      <c r="DD39" s="85"/>
-      <c r="DE39" s="85"/>
+    <row r="39" spans="1:689" ht="9.75" customHeight="1">
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="51"/>
+      <c r="T39" s="51"/>
+      <c r="U39" s="51"/>
+      <c r="V39" s="51"/>
+      <c r="W39" s="51"/>
+      <c r="X39" s="51"/>
+      <c r="Y39" s="51"/>
+      <c r="Z39" s="51"/>
+      <c r="AA39" s="51"/>
+      <c r="AB39" s="51"/>
+      <c r="AC39" s="51"/>
+      <c r="AD39" s="51"/>
+      <c r="AE39" s="51"/>
+      <c r="AF39" s="51"/>
+      <c r="AG39" s="51"/>
+      <c r="AH39" s="51"/>
+      <c r="AI39" s="51"/>
+      <c r="AJ39" s="51"/>
+      <c r="AK39" s="51"/>
+      <c r="AL39" s="51"/>
+      <c r="AM39" s="51"/>
+      <c r="AN39" s="51"/>
+      <c r="AO39" s="51"/>
+      <c r="AP39" s="51"/>
+      <c r="AQ39" s="51"/>
+      <c r="AR39" s="51"/>
+      <c r="AS39" s="51"/>
+      <c r="AT39" s="51"/>
+      <c r="AU39" s="51"/>
+      <c r="AV39" s="51"/>
+      <c r="AW39" s="51"/>
+      <c r="AX39" s="51"/>
+      <c r="AY39" s="51"/>
+      <c r="AZ39" s="51"/>
+      <c r="BA39" s="51"/>
+      <c r="BB39" s="51"/>
+      <c r="BC39" s="51"/>
+      <c r="BD39" s="51"/>
+      <c r="BE39" s="51"/>
+      <c r="BF39" s="51"/>
+      <c r="BG39" s="51"/>
+      <c r="BH39" s="51"/>
+      <c r="BI39" s="51"/>
+      <c r="BJ39" s="51"/>
+      <c r="BK39" s="51"/>
+      <c r="BL39" s="51"/>
+      <c r="BM39" s="51"/>
+      <c r="BN39" s="51"/>
+      <c r="BO39" s="51"/>
+      <c r="BP39" s="51"/>
+      <c r="BQ39" s="51"/>
+      <c r="BR39" s="51"/>
+      <c r="BS39" s="51"/>
+      <c r="BT39" s="51"/>
+      <c r="BU39" s="51"/>
+      <c r="BV39" s="51"/>
+      <c r="BW39" s="51"/>
+      <c r="BX39" s="51"/>
+      <c r="BY39" s="51"/>
+      <c r="BZ39" s="51"/>
+      <c r="CA39" s="51"/>
+      <c r="CB39" s="51"/>
+      <c r="CC39" s="51"/>
+      <c r="CD39" s="51"/>
+      <c r="CE39" s="51"/>
+      <c r="CF39" s="51"/>
+      <c r="CG39" s="51"/>
+      <c r="CH39" s="51"/>
+      <c r="CI39" s="51"/>
+      <c r="CJ39" s="51"/>
+      <c r="CK39" s="51"/>
+      <c r="CL39" s="51"/>
+      <c r="CM39" s="51"/>
+      <c r="CN39" s="51"/>
+      <c r="CO39" s="51"/>
+      <c r="CP39" s="51"/>
+      <c r="CQ39" s="51"/>
+      <c r="CR39" s="51"/>
+      <c r="CS39" s="51"/>
+      <c r="CT39" s="51"/>
+      <c r="CU39" s="51"/>
+      <c r="CV39" s="51"/>
+      <c r="CW39" s="51"/>
+      <c r="CX39" s="51"/>
+      <c r="CY39" s="51"/>
+      <c r="CZ39" s="51"/>
+      <c r="DA39" s="51"/>
+      <c r="DB39" s="51"/>
+      <c r="DC39" s="51"/>
+      <c r="DD39" s="51"/>
+      <c r="DE39" s="51"/>
+      <c r="DF39" s="51"/>
       <c r="DG39" s="51"/>
       <c r="DH39" s="51"/>
       <c r="DI39" s="51"/>
@@ -28109,126 +28117,123 @@
       <c r="ZI39" s="51"/>
       <c r="ZJ39" s="51"/>
       <c r="ZK39" s="51"/>
-      <c r="ZL39" s="12" t="s">
+      <c r="ZL39" s="51"/>
+      <c r="ZM39" s="51"/>
+    </row>
+    <row r="40" spans="1:689" ht="14.25" customHeight="1">
+      <c r="A40" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="ZM39" s="12" t="s">
+      <c r="AA40" s="85"/>
+      <c r="AB40" s="85"/>
+      <c r="AC40" s="85"/>
+      <c r="AD40" s="85"/>
+      <c r="AE40" s="85"/>
+      <c r="AF40" s="85"/>
+      <c r="AG40" s="85"/>
+      <c r="AH40" s="85"/>
+      <c r="AI40" s="85"/>
+      <c r="AJ40" s="85"/>
+      <c r="AK40" s="85"/>
+      <c r="AL40" s="85"/>
+      <c r="AM40" s="85"/>
+      <c r="AN40" s="85"/>
+      <c r="AO40" s="85"/>
+      <c r="AP40" s="85"/>
+      <c r="AQ40" s="85"/>
+      <c r="AR40" s="85"/>
+      <c r="AS40" s="85"/>
+      <c r="AT40" s="85"/>
+      <c r="AU40" s="85"/>
+      <c r="AV40" s="85"/>
+      <c r="AW40" s="85"/>
+      <c r="AX40" s="85"/>
+      <c r="AY40" s="85"/>
+      <c r="AZ40" s="85"/>
+      <c r="BB40" s="86"/>
+      <c r="BC40" s="86"/>
+      <c r="BD40" s="86"/>
+      <c r="BE40" s="86"/>
+      <c r="BF40" s="86"/>
+      <c r="BG40" s="86"/>
+      <c r="BH40" s="86"/>
+      <c r="BI40" s="86"/>
+      <c r="BJ40" s="86"/>
+      <c r="BK40" s="86"/>
+      <c r="BL40" s="86"/>
+      <c r="BM40" s="86"/>
+      <c r="BN40" s="86"/>
+      <c r="BO40" s="86"/>
+      <c r="BP40" s="86"/>
+      <c r="BQ40" s="86"/>
+      <c r="BR40" s="86"/>
+      <c r="BS40" s="86"/>
+      <c r="BT40" s="86"/>
+      <c r="BU40" s="86"/>
+      <c r="BV40" s="86"/>
+      <c r="BX40" s="85" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="40" spans="1:689" ht="6.75" customHeight="1">
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="51"/>
-      <c r="R40" s="51"/>
-      <c r="S40" s="51"/>
-      <c r="T40" s="51"/>
-      <c r="U40" s="51"/>
-      <c r="V40" s="51"/>
-      <c r="W40" s="51"/>
-      <c r="X40" s="51"/>
-      <c r="Y40" s="51"/>
-      <c r="Z40" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA40" s="21"/>
-      <c r="AB40" s="21"/>
-      <c r="AC40" s="21"/>
-      <c r="AD40" s="21"/>
-      <c r="AE40" s="21"/>
-      <c r="AF40" s="21"/>
-      <c r="AG40" s="21"/>
-      <c r="AH40" s="21"/>
-      <c r="AI40" s="21"/>
-      <c r="AJ40" s="21"/>
-      <c r="AK40" s="21"/>
-      <c r="AL40" s="21"/>
-      <c r="AM40" s="21"/>
-      <c r="AN40" s="21"/>
-      <c r="AO40" s="21"/>
-      <c r="AP40" s="21"/>
-      <c r="AQ40" s="21"/>
-      <c r="AR40" s="21"/>
-      <c r="AS40" s="21"/>
-      <c r="AT40" s="21"/>
-      <c r="AU40" s="21"/>
-      <c r="AV40" s="21"/>
-      <c r="AW40" s="21"/>
-      <c r="AX40" s="21"/>
-      <c r="AY40" s="21"/>
-      <c r="AZ40" s="21"/>
-      <c r="BB40" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="BC40" s="21"/>
-      <c r="BD40" s="21"/>
-      <c r="BE40" s="21"/>
-      <c r="BF40" s="21"/>
-      <c r="BG40" s="21"/>
-      <c r="BH40" s="21"/>
-      <c r="BI40" s="21"/>
-      <c r="BJ40" s="21"/>
-      <c r="BK40" s="21"/>
-      <c r="BL40" s="21"/>
-      <c r="BM40" s="21"/>
-      <c r="BN40" s="21"/>
-      <c r="BO40" s="21"/>
-      <c r="BP40" s="21"/>
-      <c r="BQ40" s="21"/>
-      <c r="BR40" s="21"/>
-      <c r="BS40" s="21"/>
-      <c r="BT40" s="21"/>
-      <c r="BU40" s="21"/>
-      <c r="BV40" s="21"/>
-      <c r="BX40" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="BY40" s="21"/>
-      <c r="BZ40" s="21"/>
-      <c r="CA40" s="21"/>
-      <c r="CB40" s="21"/>
-      <c r="CC40" s="21"/>
-      <c r="CD40" s="21"/>
-      <c r="CE40" s="21"/>
-      <c r="CF40" s="21"/>
-      <c r="CG40" s="21"/>
-      <c r="CH40" s="21"/>
-      <c r="CI40" s="21"/>
-      <c r="CJ40" s="21"/>
-      <c r="CK40" s="21"/>
-      <c r="CL40" s="21"/>
-      <c r="CM40" s="21"/>
-      <c r="CN40" s="21"/>
-      <c r="CO40" s="21"/>
-      <c r="CP40" s="21"/>
-      <c r="CQ40" s="21"/>
-      <c r="CR40" s="21"/>
-      <c r="CS40" s="21"/>
-      <c r="CT40" s="21"/>
-      <c r="CU40" s="21"/>
-      <c r="CV40" s="21"/>
-      <c r="CW40" s="21"/>
-      <c r="CX40" s="21"/>
-      <c r="CY40" s="21"/>
-      <c r="CZ40" s="21"/>
-      <c r="DA40" s="21"/>
-      <c r="DB40" s="21"/>
-      <c r="DC40" s="21"/>
-      <c r="DD40" s="21"/>
-      <c r="DE40" s="21"/>
+      <c r="BY40" s="85"/>
+      <c r="BZ40" s="85"/>
+      <c r="CA40" s="85"/>
+      <c r="CB40" s="85"/>
+      <c r="CC40" s="85"/>
+      <c r="CD40" s="85"/>
+      <c r="CE40" s="85"/>
+      <c r="CF40" s="85"/>
+      <c r="CG40" s="85"/>
+      <c r="CH40" s="85"/>
+      <c r="CI40" s="85"/>
+      <c r="CJ40" s="85"/>
+      <c r="CK40" s="85"/>
+      <c r="CL40" s="85"/>
+      <c r="CM40" s="85"/>
+      <c r="CN40" s="85"/>
+      <c r="CO40" s="85"/>
+      <c r="CP40" s="85"/>
+      <c r="CQ40" s="85"/>
+      <c r="CR40" s="85"/>
+      <c r="CS40" s="85"/>
+      <c r="CT40" s="85"/>
+      <c r="CU40" s="85"/>
+      <c r="CV40" s="85"/>
+      <c r="CW40" s="85"/>
+      <c r="CX40" s="85"/>
+      <c r="CY40" s="85"/>
+      <c r="CZ40" s="85"/>
+      <c r="DA40" s="85"/>
+      <c r="DB40" s="85"/>
+      <c r="DC40" s="85"/>
+      <c r="DD40" s="85"/>
+      <c r="DE40" s="85"/>
       <c r="DG40" s="51"/>
       <c r="DH40" s="51"/>
       <c r="DI40" s="51"/>
@@ -28806,10 +28811,14 @@
       <c r="ZI40" s="51"/>
       <c r="ZJ40" s="51"/>
       <c r="ZK40" s="51"/>
-      <c r="ZL40" s="51"/>
-      <c r="ZM40" s="51"/>
+      <c r="ZL40" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="ZM40" s="12" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="41" spans="1:689" ht="14.25" customHeight="1">
+    <row r="41" spans="1:689" ht="6.75" customHeight="1">
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="51"/>
@@ -28818,15 +28827,14 @@
       <c r="G41" s="51"/>
       <c r="H41" s="51"/>
       <c r="I41" s="51"/>
-      <c r="J41" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="51"/>
+      <c r="Q41" s="51"/>
       <c r="R41" s="51"/>
       <c r="S41" s="51"/>
       <c r="T41" s="51"/>
@@ -28835,91 +28843,94 @@
       <c r="W41" s="51"/>
       <c r="X41" s="51"/>
       <c r="Y41" s="51"/>
-      <c r="Z41" s="51"/>
-      <c r="AA41" s="51"/>
-      <c r="AB41" s="51"/>
-      <c r="AC41" s="51"/>
-      <c r="AD41" s="51"/>
-      <c r="AE41" s="51"/>
-      <c r="AF41" s="51"/>
-      <c r="AG41" s="51"/>
-      <c r="AH41" s="51"/>
-      <c r="AI41" s="51"/>
-      <c r="AJ41" s="51"/>
-      <c r="AK41" s="51"/>
-      <c r="AL41" s="51"/>
-      <c r="AM41" s="51"/>
-      <c r="AN41" s="51"/>
-      <c r="AO41" s="51"/>
-      <c r="AP41" s="51"/>
-      <c r="AQ41" s="51"/>
-      <c r="AR41" s="51"/>
-      <c r="AS41" s="51"/>
-      <c r="AT41" s="51"/>
-      <c r="AU41" s="51"/>
-      <c r="AV41" s="51"/>
-      <c r="AW41" s="51"/>
-      <c r="AX41" s="51"/>
-      <c r="AY41" s="51"/>
-      <c r="AZ41" s="51"/>
-      <c r="BA41" s="51"/>
-      <c r="BB41" s="51"/>
-      <c r="BC41" s="51"/>
-      <c r="BD41" s="51"/>
-      <c r="BE41" s="51"/>
-      <c r="BF41" s="51"/>
-      <c r="BG41" s="51"/>
-      <c r="BH41" s="51"/>
-      <c r="BI41" s="51"/>
-      <c r="BJ41" s="51"/>
-      <c r="BK41" s="51"/>
-      <c r="BL41" s="51"/>
-      <c r="BM41" s="51"/>
-      <c r="BN41" s="51"/>
-      <c r="BO41" s="51"/>
-      <c r="BP41" s="51"/>
-      <c r="BQ41" s="51"/>
-      <c r="BR41" s="51"/>
-      <c r="BS41" s="51"/>
-      <c r="BT41" s="51"/>
-      <c r="BU41" s="51"/>
-      <c r="BV41" s="51"/>
-      <c r="BW41" s="51"/>
-      <c r="BX41" s="51"/>
-      <c r="BY41" s="51"/>
-      <c r="BZ41" s="51"/>
-      <c r="CA41" s="51"/>
-      <c r="CB41" s="51"/>
-      <c r="CC41" s="51"/>
-      <c r="CD41" s="51"/>
-      <c r="CE41" s="51"/>
-      <c r="CF41" s="51"/>
-      <c r="CG41" s="51"/>
-      <c r="CH41" s="51"/>
-      <c r="CI41" s="51"/>
-      <c r="CJ41" s="51"/>
-      <c r="CK41" s="51"/>
-      <c r="CL41" s="51"/>
-      <c r="CM41" s="51"/>
-      <c r="CN41" s="51"/>
-      <c r="CO41" s="51"/>
-      <c r="CP41" s="51"/>
-      <c r="CQ41" s="51"/>
-      <c r="CR41" s="51"/>
-      <c r="CS41" s="51"/>
-      <c r="CT41" s="51"/>
-      <c r="CU41" s="51"/>
-      <c r="CV41" s="51"/>
-      <c r="CW41" s="51"/>
-      <c r="CX41" s="51"/>
-      <c r="CY41" s="51"/>
-      <c r="CZ41" s="51"/>
-      <c r="DA41" s="51"/>
-      <c r="DB41" s="51"/>
-      <c r="DC41" s="51"/>
-      <c r="DD41" s="51"/>
-      <c r="DE41" s="51"/>
-      <c r="DF41" s="51"/>
+      <c r="Z41" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA41" s="21"/>
+      <c r="AB41" s="21"/>
+      <c r="AC41" s="21"/>
+      <c r="AD41" s="21"/>
+      <c r="AE41" s="21"/>
+      <c r="AF41" s="21"/>
+      <c r="AG41" s="21"/>
+      <c r="AH41" s="21"/>
+      <c r="AI41" s="21"/>
+      <c r="AJ41" s="21"/>
+      <c r="AK41" s="21"/>
+      <c r="AL41" s="21"/>
+      <c r="AM41" s="21"/>
+      <c r="AN41" s="21"/>
+      <c r="AO41" s="21"/>
+      <c r="AP41" s="21"/>
+      <c r="AQ41" s="21"/>
+      <c r="AR41" s="21"/>
+      <c r="AS41" s="21"/>
+      <c r="AT41" s="21"/>
+      <c r="AU41" s="21"/>
+      <c r="AV41" s="21"/>
+      <c r="AW41" s="21"/>
+      <c r="AX41" s="21"/>
+      <c r="AY41" s="21"/>
+      <c r="AZ41" s="21"/>
+      <c r="BB41" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC41" s="21"/>
+      <c r="BD41" s="21"/>
+      <c r="BE41" s="21"/>
+      <c r="BF41" s="21"/>
+      <c r="BG41" s="21"/>
+      <c r="BH41" s="21"/>
+      <c r="BI41" s="21"/>
+      <c r="BJ41" s="21"/>
+      <c r="BK41" s="21"/>
+      <c r="BL41" s="21"/>
+      <c r="BM41" s="21"/>
+      <c r="BN41" s="21"/>
+      <c r="BO41" s="21"/>
+      <c r="BP41" s="21"/>
+      <c r="BQ41" s="21"/>
+      <c r="BR41" s="21"/>
+      <c r="BS41" s="21"/>
+      <c r="BT41" s="21"/>
+      <c r="BU41" s="21"/>
+      <c r="BV41" s="21"/>
+      <c r="BX41" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="BY41" s="21"/>
+      <c r="BZ41" s="21"/>
+      <c r="CA41" s="21"/>
+      <c r="CB41" s="21"/>
+      <c r="CC41" s="21"/>
+      <c r="CD41" s="21"/>
+      <c r="CE41" s="21"/>
+      <c r="CF41" s="21"/>
+      <c r="CG41" s="21"/>
+      <c r="CH41" s="21"/>
+      <c r="CI41" s="21"/>
+      <c r="CJ41" s="21"/>
+      <c r="CK41" s="21"/>
+      <c r="CL41" s="21"/>
+      <c r="CM41" s="21"/>
+      <c r="CN41" s="21"/>
+      <c r="CO41" s="21"/>
+      <c r="CP41" s="21"/>
+      <c r="CQ41" s="21"/>
+      <c r="CR41" s="21"/>
+      <c r="CS41" s="21"/>
+      <c r="CT41" s="21"/>
+      <c r="CU41" s="21"/>
+      <c r="CV41" s="21"/>
+      <c r="CW41" s="21"/>
+      <c r="CX41" s="21"/>
+      <c r="CY41" s="21"/>
+      <c r="CZ41" s="21"/>
+      <c r="DA41" s="21"/>
+      <c r="DB41" s="21"/>
+      <c r="DC41" s="21"/>
+      <c r="DD41" s="21"/>
+      <c r="DE41" s="21"/>
       <c r="DG41" s="51"/>
       <c r="DH41" s="51"/>
       <c r="DI41" s="51"/>
@@ -29500,7 +29511,7 @@
       <c r="ZL41" s="51"/>
       <c r="ZM41" s="51"/>
     </row>
-    <row r="42" spans="1:689" ht="11.25" hidden="1">
+    <row r="42" spans="1:689" ht="14.25" customHeight="1">
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="51"/>
@@ -29509,14 +29520,15 @@
       <c r="G42" s="51"/>
       <c r="H42" s="51"/>
       <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="51"/>
-      <c r="O42" s="51"/>
-      <c r="P42" s="51"/>
-      <c r="Q42" s="51"/>
+      <c r="J42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
       <c r="R42" s="51"/>
       <c r="S42" s="51"/>
       <c r="T42" s="51"/>
@@ -29609,6 +29621,7 @@
       <c r="DC42" s="51"/>
       <c r="DD42" s="51"/>
       <c r="DE42" s="51"/>
+      <c r="DF42" s="51"/>
       <c r="DG42" s="51"/>
       <c r="DH42" s="51"/>
       <c r="DI42" s="51"/>
@@ -30175,6 +30188,7 @@
       <c r="YX42" s="51"/>
       <c r="YY42" s="51"/>
       <c r="YZ42" s="51"/>
+      <c r="ZA42" s="51"/>
       <c r="ZB42" s="51"/>
       <c r="ZC42" s="51"/>
       <c r="ZD42" s="51"/>
@@ -30183,11 +30197,699 @@
       <c r="ZG42" s="51"/>
       <c r="ZH42" s="51"/>
       <c r="ZI42" s="51"/>
+      <c r="ZJ42" s="51"/>
       <c r="ZK42" s="51"/>
+      <c r="ZL42" s="51"/>
       <c r="ZM42" s="51"/>
     </row>
+    <row r="43" spans="1:689" ht="11.25" hidden="1">
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="51"/>
+      <c r="N43" s="51"/>
+      <c r="O43" s="51"/>
+      <c r="P43" s="51"/>
+      <c r="Q43" s="51"/>
+      <c r="R43" s="51"/>
+      <c r="S43" s="51"/>
+      <c r="T43" s="51"/>
+      <c r="U43" s="51"/>
+      <c r="V43" s="51"/>
+      <c r="W43" s="51"/>
+      <c r="X43" s="51"/>
+      <c r="Y43" s="51"/>
+      <c r="Z43" s="51"/>
+      <c r="AA43" s="51"/>
+      <c r="AB43" s="51"/>
+      <c r="AC43" s="51"/>
+      <c r="AD43" s="51"/>
+      <c r="AE43" s="51"/>
+      <c r="AF43" s="51"/>
+      <c r="AG43" s="51"/>
+      <c r="AH43" s="51"/>
+      <c r="AI43" s="51"/>
+      <c r="AJ43" s="51"/>
+      <c r="AK43" s="51"/>
+      <c r="AL43" s="51"/>
+      <c r="AM43" s="51"/>
+      <c r="AN43" s="51"/>
+      <c r="AO43" s="51"/>
+      <c r="AP43" s="51"/>
+      <c r="AQ43" s="51"/>
+      <c r="AR43" s="51"/>
+      <c r="AS43" s="51"/>
+      <c r="AT43" s="51"/>
+      <c r="AU43" s="51"/>
+      <c r="AV43" s="51"/>
+      <c r="AW43" s="51"/>
+      <c r="AX43" s="51"/>
+      <c r="AY43" s="51"/>
+      <c r="AZ43" s="51"/>
+      <c r="BA43" s="51"/>
+      <c r="BB43" s="51"/>
+      <c r="BC43" s="51"/>
+      <c r="BD43" s="51"/>
+      <c r="BE43" s="51"/>
+      <c r="BF43" s="51"/>
+      <c r="BG43" s="51"/>
+      <c r="BH43" s="51"/>
+      <c r="BI43" s="51"/>
+      <c r="BJ43" s="51"/>
+      <c r="BK43" s="51"/>
+      <c r="BL43" s="51"/>
+      <c r="BM43" s="51"/>
+      <c r="BN43" s="51"/>
+      <c r="BO43" s="51"/>
+      <c r="BP43" s="51"/>
+      <c r="BQ43" s="51"/>
+      <c r="BR43" s="51"/>
+      <c r="BS43" s="51"/>
+      <c r="BT43" s="51"/>
+      <c r="BU43" s="51"/>
+      <c r="BV43" s="51"/>
+      <c r="BW43" s="51"/>
+      <c r="BX43" s="51"/>
+      <c r="BY43" s="51"/>
+      <c r="BZ43" s="51"/>
+      <c r="CA43" s="51"/>
+      <c r="CB43" s="51"/>
+      <c r="CC43" s="51"/>
+      <c r="CD43" s="51"/>
+      <c r="CE43" s="51"/>
+      <c r="CF43" s="51"/>
+      <c r="CG43" s="51"/>
+      <c r="CH43" s="51"/>
+      <c r="CI43" s="51"/>
+      <c r="CJ43" s="51"/>
+      <c r="CK43" s="51"/>
+      <c r="CL43" s="51"/>
+      <c r="CM43" s="51"/>
+      <c r="CN43" s="51"/>
+      <c r="CO43" s="51"/>
+      <c r="CP43" s="51"/>
+      <c r="CQ43" s="51"/>
+      <c r="CR43" s="51"/>
+      <c r="CS43" s="51"/>
+      <c r="CT43" s="51"/>
+      <c r="CU43" s="51"/>
+      <c r="CV43" s="51"/>
+      <c r="CW43" s="51"/>
+      <c r="CX43" s="51"/>
+      <c r="CY43" s="51"/>
+      <c r="CZ43" s="51"/>
+      <c r="DA43" s="51"/>
+      <c r="DB43" s="51"/>
+      <c r="DC43" s="51"/>
+      <c r="DD43" s="51"/>
+      <c r="DE43" s="51"/>
+      <c r="DG43" s="51"/>
+      <c r="DH43" s="51"/>
+      <c r="DI43" s="51"/>
+      <c r="DJ43" s="51"/>
+      <c r="DK43" s="51"/>
+      <c r="DL43" s="51"/>
+      <c r="DM43" s="51"/>
+      <c r="DN43" s="51"/>
+      <c r="DO43" s="51"/>
+      <c r="DP43" s="51"/>
+      <c r="DQ43" s="51"/>
+      <c r="DR43" s="51"/>
+      <c r="DS43" s="51"/>
+      <c r="DT43" s="51"/>
+      <c r="DU43" s="51"/>
+      <c r="DV43" s="51"/>
+      <c r="DW43" s="51"/>
+      <c r="DX43" s="51"/>
+      <c r="DY43" s="51"/>
+      <c r="DZ43" s="51"/>
+      <c r="EA43" s="51"/>
+      <c r="EB43" s="51"/>
+      <c r="EC43" s="51"/>
+      <c r="ED43" s="51"/>
+      <c r="EE43" s="51"/>
+      <c r="EF43" s="51"/>
+      <c r="EG43" s="51"/>
+      <c r="EH43" s="51"/>
+      <c r="EI43" s="51"/>
+      <c r="EJ43" s="51"/>
+      <c r="EK43" s="51"/>
+      <c r="EL43" s="51"/>
+      <c r="EM43" s="51"/>
+      <c r="EN43" s="51"/>
+      <c r="EO43" s="51"/>
+      <c r="EP43" s="51"/>
+      <c r="EQ43" s="51"/>
+      <c r="ER43" s="51"/>
+      <c r="ES43" s="51"/>
+      <c r="ET43" s="51"/>
+      <c r="EU43" s="51"/>
+      <c r="EV43" s="51"/>
+      <c r="EW43" s="51"/>
+      <c r="EX43" s="51"/>
+      <c r="EY43" s="51"/>
+      <c r="EZ43" s="51"/>
+      <c r="FA43" s="51"/>
+      <c r="FB43" s="51"/>
+      <c r="FC43" s="51"/>
+      <c r="FD43" s="51"/>
+      <c r="FE43" s="51"/>
+      <c r="FF43" s="51"/>
+      <c r="FG43" s="51"/>
+      <c r="FH43" s="51"/>
+      <c r="FI43" s="51"/>
+      <c r="FJ43" s="51"/>
+      <c r="FK43" s="51"/>
+      <c r="FL43" s="51"/>
+      <c r="FM43" s="51"/>
+      <c r="FN43" s="51"/>
+      <c r="FO43" s="51"/>
+      <c r="FP43" s="51"/>
+      <c r="FQ43" s="51"/>
+      <c r="FR43" s="51"/>
+      <c r="FS43" s="51"/>
+      <c r="FT43" s="51"/>
+      <c r="FU43" s="51"/>
+      <c r="FV43" s="51"/>
+      <c r="FW43" s="51"/>
+      <c r="FX43" s="51"/>
+      <c r="FY43" s="51"/>
+      <c r="FZ43" s="51"/>
+      <c r="GA43" s="51"/>
+      <c r="GB43" s="51"/>
+      <c r="GC43" s="51"/>
+      <c r="GD43" s="51"/>
+      <c r="GE43" s="51"/>
+      <c r="GF43" s="51"/>
+      <c r="GG43" s="51"/>
+      <c r="GH43" s="51"/>
+      <c r="GI43" s="51"/>
+      <c r="GJ43" s="51"/>
+      <c r="GK43" s="51"/>
+      <c r="GL43" s="51"/>
+      <c r="GM43" s="51"/>
+      <c r="GN43" s="51"/>
+      <c r="GO43" s="51"/>
+      <c r="GP43" s="51"/>
+      <c r="GQ43" s="51"/>
+      <c r="GR43" s="51"/>
+      <c r="GS43" s="51"/>
+      <c r="GT43" s="51"/>
+      <c r="GU43" s="51"/>
+      <c r="GV43" s="51"/>
+      <c r="GW43" s="51"/>
+      <c r="GX43" s="51"/>
+      <c r="GY43" s="51"/>
+      <c r="GZ43" s="51"/>
+      <c r="HA43" s="51"/>
+      <c r="HB43" s="51"/>
+      <c r="HC43" s="51"/>
+      <c r="HD43" s="51"/>
+      <c r="HE43" s="51"/>
+      <c r="HF43" s="51"/>
+      <c r="HG43" s="51"/>
+      <c r="HH43" s="51"/>
+      <c r="HI43" s="51"/>
+      <c r="HJ43" s="51"/>
+      <c r="HK43" s="51"/>
+      <c r="HL43" s="51"/>
+      <c r="HM43" s="51"/>
+      <c r="HN43" s="51"/>
+      <c r="HO43" s="51"/>
+      <c r="HP43" s="51"/>
+      <c r="HQ43" s="51"/>
+      <c r="HR43" s="51"/>
+      <c r="HS43" s="51"/>
+      <c r="HT43" s="51"/>
+      <c r="HU43" s="51"/>
+      <c r="HV43" s="51"/>
+      <c r="HW43" s="51"/>
+      <c r="HX43" s="51"/>
+      <c r="HY43" s="51"/>
+      <c r="HZ43" s="51"/>
+      <c r="IA43" s="51"/>
+      <c r="IB43" s="51"/>
+      <c r="IC43" s="51"/>
+      <c r="ID43" s="51"/>
+      <c r="IE43" s="51"/>
+      <c r="IF43" s="51"/>
+      <c r="IG43" s="51"/>
+      <c r="IH43" s="51"/>
+      <c r="II43" s="51"/>
+      <c r="IJ43" s="51"/>
+      <c r="IK43" s="51"/>
+      <c r="IL43" s="51"/>
+      <c r="IM43" s="51"/>
+      <c r="IN43" s="51"/>
+      <c r="IO43" s="51"/>
+      <c r="IP43" s="51"/>
+      <c r="IQ43" s="51"/>
+      <c r="IR43" s="51"/>
+      <c r="IS43" s="51"/>
+      <c r="IT43" s="51"/>
+      <c r="IU43" s="51"/>
+      <c r="IV43" s="51"/>
+      <c r="IW43" s="51"/>
+      <c r="IX43" s="51"/>
+      <c r="IY43" s="51"/>
+      <c r="IZ43" s="51"/>
+      <c r="JA43" s="51"/>
+      <c r="JB43" s="51"/>
+      <c r="JC43" s="51"/>
+      <c r="JD43" s="51"/>
+      <c r="JE43" s="51"/>
+      <c r="JF43" s="51"/>
+      <c r="JG43" s="51"/>
+      <c r="JH43" s="51"/>
+      <c r="JI43" s="51"/>
+      <c r="JJ43" s="51"/>
+      <c r="JK43" s="51"/>
+      <c r="JL43" s="51"/>
+      <c r="JM43" s="51"/>
+      <c r="JN43" s="51"/>
+      <c r="JO43" s="51"/>
+      <c r="JP43" s="51"/>
+      <c r="JQ43" s="51"/>
+      <c r="JR43" s="51"/>
+      <c r="JS43" s="51"/>
+      <c r="JT43" s="51"/>
+      <c r="JU43" s="51"/>
+      <c r="JV43" s="51"/>
+      <c r="JW43" s="51"/>
+      <c r="JX43" s="51"/>
+      <c r="JY43" s="51"/>
+      <c r="JZ43" s="51"/>
+      <c r="KA43" s="51"/>
+      <c r="KB43" s="51"/>
+      <c r="KC43" s="51"/>
+      <c r="KD43" s="51"/>
+      <c r="KE43" s="51"/>
+      <c r="KF43" s="51"/>
+      <c r="KG43" s="51"/>
+      <c r="KH43" s="51"/>
+      <c r="KI43" s="51"/>
+      <c r="KJ43" s="51"/>
+      <c r="KK43" s="51"/>
+      <c r="KL43" s="51"/>
+      <c r="KM43" s="51"/>
+      <c r="KN43" s="51"/>
+      <c r="KO43" s="51"/>
+      <c r="KP43" s="51"/>
+      <c r="KQ43" s="51"/>
+      <c r="KR43" s="51"/>
+      <c r="KS43" s="51"/>
+      <c r="KT43" s="51"/>
+      <c r="KU43" s="51"/>
+      <c r="KV43" s="51"/>
+      <c r="KW43" s="51"/>
+      <c r="KX43" s="51"/>
+      <c r="KY43" s="51"/>
+      <c r="KZ43" s="51"/>
+      <c r="LA43" s="51"/>
+      <c r="LB43" s="51"/>
+      <c r="LC43" s="51"/>
+      <c r="LD43" s="51"/>
+      <c r="LE43" s="51"/>
+      <c r="LF43" s="51"/>
+      <c r="LG43" s="51"/>
+      <c r="LH43" s="51"/>
+      <c r="LI43" s="51"/>
+      <c r="LJ43" s="51"/>
+      <c r="LK43" s="51"/>
+      <c r="LL43" s="51"/>
+      <c r="LM43" s="51"/>
+      <c r="LN43" s="51"/>
+      <c r="LO43" s="51"/>
+      <c r="LP43" s="51"/>
+      <c r="LQ43" s="51"/>
+      <c r="LR43" s="51"/>
+      <c r="LS43" s="51"/>
+      <c r="LT43" s="51"/>
+      <c r="LU43" s="51"/>
+      <c r="LV43" s="51"/>
+      <c r="LW43" s="51"/>
+      <c r="LX43" s="51"/>
+      <c r="LY43" s="51"/>
+      <c r="LZ43" s="51"/>
+      <c r="MA43" s="51"/>
+      <c r="MB43" s="51"/>
+      <c r="MC43" s="51"/>
+      <c r="MD43" s="51"/>
+      <c r="ME43" s="51"/>
+      <c r="MF43" s="51"/>
+      <c r="MG43" s="51"/>
+      <c r="MH43" s="51"/>
+      <c r="MI43" s="51"/>
+      <c r="MJ43" s="51"/>
+      <c r="MK43" s="51"/>
+      <c r="ML43" s="51"/>
+      <c r="MM43" s="51"/>
+      <c r="MN43" s="51"/>
+      <c r="MO43" s="51"/>
+      <c r="MP43" s="51"/>
+      <c r="MQ43" s="51"/>
+      <c r="MR43" s="51"/>
+      <c r="MS43" s="51"/>
+      <c r="MT43" s="51"/>
+      <c r="MU43" s="51"/>
+      <c r="MV43" s="51"/>
+      <c r="MW43" s="51"/>
+      <c r="MX43" s="51"/>
+      <c r="MY43" s="51"/>
+      <c r="MZ43" s="51"/>
+      <c r="NA43" s="51"/>
+      <c r="NB43" s="51"/>
+      <c r="NC43" s="51"/>
+      <c r="ND43" s="51"/>
+      <c r="NE43" s="51"/>
+      <c r="NF43" s="51"/>
+      <c r="NG43" s="51"/>
+      <c r="NH43" s="51"/>
+      <c r="NI43" s="51"/>
+      <c r="NJ43" s="51"/>
+      <c r="NK43" s="51"/>
+      <c r="NL43" s="51"/>
+      <c r="NM43" s="51"/>
+      <c r="NN43" s="51"/>
+      <c r="NO43" s="51"/>
+      <c r="NP43" s="51"/>
+      <c r="NQ43" s="51"/>
+      <c r="NR43" s="51"/>
+      <c r="NS43" s="51"/>
+      <c r="NT43" s="51"/>
+      <c r="NU43" s="51"/>
+      <c r="NV43" s="51"/>
+      <c r="NW43" s="51"/>
+      <c r="NX43" s="51"/>
+      <c r="NY43" s="51"/>
+      <c r="NZ43" s="51"/>
+      <c r="OA43" s="51"/>
+      <c r="OB43" s="51"/>
+      <c r="OC43" s="51"/>
+      <c r="OD43" s="51"/>
+      <c r="OE43" s="51"/>
+      <c r="OF43" s="51"/>
+      <c r="OG43" s="51"/>
+      <c r="OH43" s="51"/>
+      <c r="OI43" s="51"/>
+      <c r="OJ43" s="51"/>
+      <c r="OK43" s="51"/>
+      <c r="OL43" s="51"/>
+      <c r="OM43" s="51"/>
+      <c r="ON43" s="51"/>
+      <c r="OO43" s="51"/>
+      <c r="OP43" s="51"/>
+      <c r="OQ43" s="51"/>
+      <c r="OR43" s="51"/>
+      <c r="OS43" s="51"/>
+      <c r="OT43" s="51"/>
+      <c r="OU43" s="51"/>
+      <c r="OV43" s="51"/>
+      <c r="OW43" s="51"/>
+      <c r="OX43" s="51"/>
+      <c r="OY43" s="51"/>
+      <c r="OZ43" s="51"/>
+      <c r="PA43" s="51"/>
+      <c r="PB43" s="51"/>
+      <c r="PC43" s="51"/>
+      <c r="PD43" s="51"/>
+      <c r="PE43" s="51"/>
+      <c r="PF43" s="51"/>
+      <c r="PG43" s="51"/>
+      <c r="PH43" s="51"/>
+      <c r="PI43" s="51"/>
+      <c r="PJ43" s="51"/>
+      <c r="PK43" s="51"/>
+      <c r="PL43" s="51"/>
+      <c r="PM43" s="51"/>
+      <c r="PN43" s="51"/>
+      <c r="PO43" s="51"/>
+      <c r="PP43" s="51"/>
+      <c r="PQ43" s="51"/>
+      <c r="PR43" s="51"/>
+      <c r="PS43" s="51"/>
+      <c r="PT43" s="51"/>
+      <c r="PU43" s="51"/>
+      <c r="PV43" s="51"/>
+      <c r="PW43" s="51"/>
+      <c r="PX43" s="51"/>
+      <c r="PY43" s="51"/>
+      <c r="PZ43" s="51"/>
+      <c r="QA43" s="51"/>
+      <c r="QB43" s="51"/>
+      <c r="QC43" s="51"/>
+      <c r="QD43" s="51"/>
+      <c r="QE43" s="51"/>
+      <c r="QF43" s="51"/>
+      <c r="QG43" s="51"/>
+      <c r="QH43" s="51"/>
+      <c r="QI43" s="51"/>
+      <c r="QJ43" s="51"/>
+      <c r="QK43" s="51"/>
+      <c r="QL43" s="51"/>
+      <c r="QM43" s="51"/>
+      <c r="QN43" s="51"/>
+      <c r="QO43" s="51"/>
+      <c r="QP43" s="51"/>
+      <c r="QQ43" s="51"/>
+      <c r="QR43" s="51"/>
+      <c r="QS43" s="51"/>
+      <c r="QT43" s="51"/>
+      <c r="QU43" s="51"/>
+      <c r="QV43" s="51"/>
+      <c r="QW43" s="51"/>
+      <c r="QX43" s="51"/>
+      <c r="QY43" s="51"/>
+      <c r="QZ43" s="51"/>
+      <c r="RA43" s="51"/>
+      <c r="RB43" s="51"/>
+      <c r="RC43" s="51"/>
+      <c r="RD43" s="51"/>
+      <c r="RE43" s="51"/>
+      <c r="RF43" s="51"/>
+      <c r="RG43" s="51"/>
+      <c r="RH43" s="51"/>
+      <c r="RI43" s="51"/>
+      <c r="RJ43" s="51"/>
+      <c r="RK43" s="51"/>
+      <c r="RL43" s="51"/>
+      <c r="RM43" s="51"/>
+      <c r="RN43" s="51"/>
+      <c r="RO43" s="51"/>
+      <c r="RP43" s="51"/>
+      <c r="RQ43" s="51"/>
+      <c r="RR43" s="51"/>
+      <c r="RS43" s="51"/>
+      <c r="RT43" s="51"/>
+      <c r="RU43" s="51"/>
+      <c r="RV43" s="51"/>
+      <c r="RW43" s="51"/>
+      <c r="RX43" s="51"/>
+      <c r="RY43" s="51"/>
+      <c r="RZ43" s="51"/>
+      <c r="SA43" s="51"/>
+      <c r="SB43" s="51"/>
+      <c r="SC43" s="51"/>
+      <c r="SD43" s="51"/>
+      <c r="SE43" s="51"/>
+      <c r="SF43" s="51"/>
+      <c r="SG43" s="51"/>
+      <c r="SH43" s="51"/>
+      <c r="SI43" s="51"/>
+      <c r="SJ43" s="51"/>
+      <c r="SK43" s="51"/>
+      <c r="SL43" s="51"/>
+      <c r="SM43" s="51"/>
+      <c r="SN43" s="51"/>
+      <c r="SO43" s="51"/>
+      <c r="SP43" s="51"/>
+      <c r="SQ43" s="51"/>
+      <c r="SR43" s="51"/>
+      <c r="SS43" s="51"/>
+      <c r="ST43" s="51"/>
+      <c r="SU43" s="51"/>
+      <c r="SV43" s="51"/>
+      <c r="SW43" s="51"/>
+      <c r="SX43" s="51"/>
+      <c r="SY43" s="51"/>
+      <c r="SZ43" s="51"/>
+      <c r="TA43" s="51"/>
+      <c r="TB43" s="51"/>
+      <c r="TC43" s="51"/>
+      <c r="TD43" s="51"/>
+      <c r="TE43" s="51"/>
+      <c r="TF43" s="51"/>
+      <c r="TG43" s="51"/>
+      <c r="TH43" s="51"/>
+      <c r="TI43" s="51"/>
+      <c r="TJ43" s="51"/>
+      <c r="TK43" s="51"/>
+      <c r="TL43" s="51"/>
+      <c r="TM43" s="51"/>
+      <c r="TN43" s="51"/>
+      <c r="TO43" s="51"/>
+      <c r="TP43" s="51"/>
+      <c r="TQ43" s="51"/>
+      <c r="TR43" s="51"/>
+      <c r="TS43" s="51"/>
+      <c r="TT43" s="51"/>
+      <c r="TU43" s="51"/>
+      <c r="TV43" s="51"/>
+      <c r="TW43" s="51"/>
+      <c r="TX43" s="51"/>
+      <c r="TY43" s="51"/>
+      <c r="TZ43" s="51"/>
+      <c r="UA43" s="51"/>
+      <c r="UB43" s="51"/>
+      <c r="UC43" s="51"/>
+      <c r="UD43" s="51"/>
+      <c r="UE43" s="51"/>
+      <c r="UF43" s="51"/>
+      <c r="UG43" s="51"/>
+      <c r="UH43" s="51"/>
+      <c r="UI43" s="51"/>
+      <c r="UJ43" s="51"/>
+      <c r="UK43" s="51"/>
+      <c r="UL43" s="51"/>
+      <c r="UM43" s="51"/>
+      <c r="UN43" s="51"/>
+      <c r="UO43" s="51"/>
+      <c r="UP43" s="51"/>
+      <c r="UQ43" s="51"/>
+      <c r="UR43" s="51"/>
+      <c r="US43" s="51"/>
+      <c r="UT43" s="51"/>
+      <c r="UU43" s="51"/>
+      <c r="UV43" s="51"/>
+      <c r="UW43" s="51"/>
+      <c r="UX43" s="51"/>
+      <c r="UY43" s="51"/>
+      <c r="UZ43" s="51"/>
+      <c r="VA43" s="51"/>
+      <c r="VB43" s="51"/>
+      <c r="VC43" s="51"/>
+      <c r="VD43" s="51"/>
+      <c r="VE43" s="51"/>
+      <c r="VF43" s="51"/>
+      <c r="VG43" s="51"/>
+      <c r="VH43" s="51"/>
+      <c r="VI43" s="51"/>
+      <c r="VJ43" s="51"/>
+      <c r="VK43" s="51"/>
+      <c r="VL43" s="51"/>
+      <c r="VM43" s="51"/>
+      <c r="VN43" s="51"/>
+      <c r="VO43" s="51"/>
+      <c r="VP43" s="51"/>
+      <c r="VQ43" s="51"/>
+      <c r="VR43" s="51"/>
+      <c r="VS43" s="51"/>
+      <c r="VT43" s="51"/>
+      <c r="VU43" s="51"/>
+      <c r="VV43" s="51"/>
+      <c r="VW43" s="51"/>
+      <c r="VX43" s="51"/>
+      <c r="VY43" s="51"/>
+      <c r="VZ43" s="51"/>
+      <c r="WA43" s="51"/>
+      <c r="WB43" s="51"/>
+      <c r="WC43" s="51"/>
+      <c r="WD43" s="51"/>
+      <c r="WE43" s="51"/>
+      <c r="WF43" s="51"/>
+      <c r="WG43" s="51"/>
+      <c r="WH43" s="51"/>
+      <c r="WI43" s="51"/>
+      <c r="WJ43" s="51"/>
+      <c r="WK43" s="51"/>
+      <c r="WL43" s="51"/>
+      <c r="WM43" s="51"/>
+      <c r="WN43" s="51"/>
+      <c r="WO43" s="51"/>
+      <c r="WP43" s="51"/>
+      <c r="WQ43" s="51"/>
+      <c r="WR43" s="51"/>
+      <c r="WS43" s="51"/>
+      <c r="WT43" s="51"/>
+      <c r="WU43" s="51"/>
+      <c r="WV43" s="51"/>
+      <c r="WW43" s="51"/>
+      <c r="WX43" s="51"/>
+      <c r="WY43" s="51"/>
+      <c r="WZ43" s="51"/>
+      <c r="XA43" s="51"/>
+      <c r="XB43" s="51"/>
+      <c r="XC43" s="51"/>
+      <c r="XD43" s="51"/>
+      <c r="XE43" s="51"/>
+      <c r="XF43" s="51"/>
+      <c r="XG43" s="51"/>
+      <c r="XH43" s="51"/>
+      <c r="XI43" s="51"/>
+      <c r="XJ43" s="51"/>
+      <c r="XK43" s="51"/>
+      <c r="XL43" s="51"/>
+      <c r="XM43" s="51"/>
+      <c r="XN43" s="51"/>
+      <c r="XO43" s="51"/>
+      <c r="XP43" s="51"/>
+      <c r="XQ43" s="51"/>
+      <c r="XR43" s="51"/>
+      <c r="XS43" s="51"/>
+      <c r="XT43" s="51"/>
+      <c r="XU43" s="51"/>
+      <c r="XV43" s="51"/>
+      <c r="XW43" s="51"/>
+      <c r="XX43" s="51"/>
+      <c r="XY43" s="51"/>
+      <c r="XZ43" s="51"/>
+      <c r="YA43" s="51"/>
+      <c r="YB43" s="51"/>
+      <c r="YC43" s="51"/>
+      <c r="YD43" s="51"/>
+      <c r="YE43" s="51"/>
+      <c r="YF43" s="51"/>
+      <c r="YG43" s="51"/>
+      <c r="YH43" s="51"/>
+      <c r="YI43" s="51"/>
+      <c r="YJ43" s="51"/>
+      <c r="YK43" s="51"/>
+      <c r="YL43" s="51"/>
+      <c r="YM43" s="51"/>
+      <c r="YN43" s="51"/>
+      <c r="YO43" s="51"/>
+      <c r="YP43" s="51"/>
+      <c r="YQ43" s="51"/>
+      <c r="YR43" s="51"/>
+      <c r="YS43" s="51"/>
+      <c r="YT43" s="51"/>
+      <c r="YU43" s="51"/>
+      <c r="YV43" s="51"/>
+      <c r="YW43" s="51"/>
+      <c r="YX43" s="51"/>
+      <c r="YY43" s="51"/>
+      <c r="YZ43" s="51"/>
+      <c r="ZB43" s="51"/>
+      <c r="ZC43" s="51"/>
+      <c r="ZD43" s="51"/>
+      <c r="ZE43" s="51"/>
+      <c r="ZF43" s="51"/>
+      <c r="ZG43" s="51"/>
+      <c r="ZH43" s="51"/>
+      <c r="ZI43" s="51"/>
+      <c r="ZK43" s="51"/>
+      <c r="ZM43" s="51"/>
+    </row>
   </sheetData>
-  <mergeCells count="98">
+  <mergeCells count="104">
     <mergeCell ref="BE1:DE2"/>
     <mergeCell ref="CQ3:DE3"/>
     <mergeCell ref="BZ4:CP4"/>
@@ -30264,28 +30966,34 @@
     <mergeCell ref="BM30:CA30"/>
     <mergeCell ref="CB30:CP30"/>
     <mergeCell ref="CQ30:DE30"/>
-    <mergeCell ref="BM31:CP31"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:BD31"/>
+    <mergeCell ref="BE31:BL31"/>
+    <mergeCell ref="BM31:CA31"/>
+    <mergeCell ref="CB31:CP31"/>
     <mergeCell ref="CQ31:DE31"/>
     <mergeCell ref="BM32:CP32"/>
     <mergeCell ref="CQ32:DE32"/>
     <mergeCell ref="BM33:CP33"/>
     <mergeCell ref="CQ33:DE33"/>
-    <mergeCell ref="A35:Y35"/>
-    <mergeCell ref="Z35:AZ35"/>
-    <mergeCell ref="BB35:BV35"/>
-    <mergeCell ref="BX35:DE35"/>
+    <mergeCell ref="BM34:CP34"/>
+    <mergeCell ref="CQ34:DE34"/>
+    <mergeCell ref="A36:Y36"/>
     <mergeCell ref="Z36:AZ36"/>
     <mergeCell ref="BB36:BV36"/>
     <mergeCell ref="BX36:DE36"/>
-    <mergeCell ref="J37:P37"/>
-    <mergeCell ref="A39:Y39"/>
-    <mergeCell ref="Z39:AZ39"/>
-    <mergeCell ref="BB39:BV39"/>
-    <mergeCell ref="BX39:DE39"/>
+    <mergeCell ref="Z37:AZ37"/>
+    <mergeCell ref="BB37:BV37"/>
+    <mergeCell ref="BX37:DE37"/>
+    <mergeCell ref="J38:P38"/>
+    <mergeCell ref="A40:Y40"/>
     <mergeCell ref="Z40:AZ40"/>
     <mergeCell ref="BB40:BV40"/>
     <mergeCell ref="BX40:DE40"/>
-    <mergeCell ref="J41:P41"/>
+    <mergeCell ref="Z41:AZ41"/>
+    <mergeCell ref="BB41:BV41"/>
+    <mergeCell ref="BX41:DE41"/>
+    <mergeCell ref="J42:P42"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -30294,7 +31002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{c54b16d2-7f12-4179-8265-fee650d4c5c9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a8d2a4d2-0be9-4e1a-80ef-76dee35dcc47}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/ks_3/utils/output.xlsx
+++ b/ks_3/utils/output.xlsx
@@ -1064,7 +1064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8f705f40-95ac-40e7-b4c9-a5a7f5091645}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{e8447a2a-c0bf-4a16-a701-92da6fd2edd1}">
   <dimension ref="A1:ZM43"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -31002,7 +31002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a8d2a4d2-0be9-4e1a-80ef-76dee35dcc47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{afc0dda9-4466-4d43-9b9c-8a55080af7d5}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
